--- a/Notes/Book1.xlsx
+++ b/Notes/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janesh/Documents/Selva/code/neetcodedsa/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07ADDBB-40A0-7945-8745-6D79E7F50181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE03645A-626B-6844-A4E9-03CE9A971129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{AFBA0224-CA6B-914E-B7AA-6715B0798ABB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>S.No</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>1) Use Two Pointers  2) Enumerate the list 3) compare the  values  with value 4)If it is  equal assign left pointer with right pointer return l</t>
+  </si>
+  <si>
+    <t>Concatenation elements from the array</t>
+  </si>
+  <si>
+    <t>Use '+'  operator to concatenate the array</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4820253-6C11-EA48-9067-1ACEB3A1F019}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,6 +512,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45458</v>
+      </c>
+      <c r="C4">
+        <v>1929</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
